--- a/7RMART/src/test/resources/Testdata.xlsx
+++ b/7RMART/src/test/resources/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3c37e2d54351239/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{543EBABE-E24A-4220-82D2-D0E43F1A732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{539FBDDC-9178-4985-8E6B-993A72C9C131}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{543EBABE-E24A-4220-82D2-D0E43F1A732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D19254C-0753-4A85-975E-0BCAF1EFD798}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{3BF06B76-0C3F-459C-9765-1BB3A71CA938}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{3BF06B76-0C3F-459C-9765-1BB3A71CA938}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>username</t>
   </si>
@@ -115,13 +115,19 @@
   </si>
   <si>
     <t>HairClips</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>Please enter stock count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +142,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,9 +171,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -554,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E886108-527F-446D-B514-42AE46490F25}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -692,15 +705,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEF19CD-7FB5-4900-A75B-A64ACF5B2E97}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -710,8 +726,11 @@
       <c r="C1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -720,6 +739,9 @@
       </c>
       <c r="C2">
         <v>150</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -731,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6ECD8D-ADF5-4C1B-87FC-53E090F574D9}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,6 +763,7 @@
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
